--- a/biology/Médecine/Articulation_temporo-mandibulaire/Articulation_temporo-mandibulaire.xlsx
+++ b/biology/Médecine/Articulation_temporo-mandibulaire/Articulation_temporo-mandibulaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'articulation temporo-mandibulaire, abrégé ATM, est une diarthrose (ou synoviale, de type bi-condylaire) qui unit la fosse mandibulaire de l'os temporal avec le condyle de la mandibule par l'intermédiaire d'un disque articulaire fibrocartilagineux et fermée par une capsule articulaire.
 Le disque articulaire, de forme ellipsoïdale divise fonctionnellement l'articulation en deux. Avec deux membranes synoviales une supérieure et une inférieure tapissant les deux cavités articulaires supérieure et inférieure de l'articulation.
@@ -531,20 +543,97 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Descriptions
-La pathologie de l'articulation temporo-mandibulaire se traduit par des douleurs musculaires (myalgies), des craquements, des ressauts à l'ouverture et à la fermeture. Sa proximité de l'oreille peut engendrer des acouphènes, des otalgies, de l'hyperacousie, des sensations de vertige ou d'oreille bouchée[1].
-Étiologie
-Les causes de la dysfonction sont :
+          <t>Descriptions</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pathologie de l'articulation temporo-mandibulaire se traduit par des douleurs musculaires (myalgies), des craquements, des ressauts à l'ouverture et à la fermeture. Sa proximité de l'oreille peut engendrer des acouphènes, des otalgies, de l'hyperacousie, des sensations de vertige ou d'oreille bouchée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Articulation_temporo-mandibulaire</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Articulation_temporo-mandibulaire</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Syndrome dysfonctionnel de l'articulation temporo-mandibulaire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Étiologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les causes de la dysfonction sont :
 une mauvaise occlusion : toute dégradation de l'occlusion se répercute à terme sur l'articulation des mâchoires ;
 l'existence de parafonctions (serrer les dents, grincer des dents ou bruxisme) générées ou, le plus souvent, aggravées par le stress ;
 une dysfonction dans le jeu des muscles agonistes et antagonistes, ou une réduction de la phase de repos physiologique des muscles, voire des crampes musculaires ;
 une différence de la hauteur des membres inférieurs[réf. souhaitée] ;
 une mauvaise position de la langue entrainant une mauvaise déglutition salivaire.
-Dans le cas de certaines dystonies oromandibulaires (DOM), les muscles de l'ATM peuvent être impliqués par les spasmes.
-Symptômes
-Troubles otologiques
-Les troubles otologiques (acouphènes, hyperacousie et otalgie) sont fréquents dans les troubles des articulations temporo-mandibulaires[2],[3]. Il est de plus en plus envisagé que les troubles ATM entrainent une contraction tonique du muscle tenseur du tympan à l'origine de ces troubles[4] (symptômes très proche du syndrome tonique du muscle tenseur du tympan).
-Plusieurs hypothèses pourraient expliquer la relation entre les troubles ATM et leurs conséquences sur la tonicité du muscle tenseur du tympan. Par exemple, des troubles réflexes du muscle tenseur du tympan en lien avec le ligament disco-malléolaire. En effet, ils se produiraient en raison de la stimulation directe du marteau à travers ce ligament malléolaire[5].
+Dans le cas de certaines dystonies oromandibulaires (DOM), les muscles de l'ATM peuvent être impliqués par les spasmes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Articulation_temporo-mandibulaire</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Articulation_temporo-mandibulaire</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Syndrome dysfonctionnel de l'articulation temporo-mandibulaire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Symptômes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Troubles otologiques</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les troubles otologiques (acouphènes, hyperacousie et otalgie) sont fréquents dans les troubles des articulations temporo-mandibulaires,. Il est de plus en plus envisagé que les troubles ATM entrainent une contraction tonique du muscle tenseur du tympan à l'origine de ces troubles (symptômes très proche du syndrome tonique du muscle tenseur du tympan).
+Plusieurs hypothèses pourraient expliquer la relation entre les troubles ATM et leurs conséquences sur la tonicité du muscle tenseur du tympan. Par exemple, des troubles réflexes du muscle tenseur du tympan en lien avec le ligament disco-malléolaire. En effet, ils se produiraient en raison de la stimulation directe du marteau à travers ce ligament malléolaire.
 </t>
         </is>
       </c>
